--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://svenskidrott-my.sharepoint.com/personal/william_lind_rfsisu_se/Documents/Dokument/GitHub/Hemsideprojekt/Hemsideprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_F25DC773A252ABDACC1048F9A9DA43CE5ADE58FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9A38856-7AF7-4E43-AE5D-5905C5F60C96}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="11_F25DC773A252ABDACC1048F9A9DA43CE5ADE58FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B84B171B-1C33-4786-BAF2-70D76D17235F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Normaldistribution" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Kategori</t>
   </si>
@@ -75,6 +75,39 @@
   </si>
   <si>
     <t>Skostorlek</t>
+  </si>
+  <si>
+    <t>Område</t>
+  </si>
+  <si>
+    <t>Utbildningsnivå</t>
+  </si>
+  <si>
+    <t>Lön</t>
+  </si>
+  <si>
+    <t>Timmar träning/v</t>
+  </si>
+  <si>
+    <t>Timmar sömn/v</t>
+  </si>
+  <si>
+    <t>Hyresavgift</t>
+  </si>
+  <si>
+    <t>Ägande av bostad</t>
+  </si>
+  <si>
+    <t>Förmögenhet</t>
+  </si>
+  <si>
+    <t>Besparingar</t>
+  </si>
+  <si>
+    <t>Läsning (lästid/v, böcker/år)</t>
+  </si>
+  <si>
+    <t>Antal barn</t>
   </si>
 </sst>
 </file>
@@ -406,17 +439,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="117.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="117.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -450,7 +483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -464,7 +497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -472,7 +505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -480,7 +513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -488,12 +521,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -505,14 +538,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D801E6-0F05-4FE2-823C-65EA8EB5F865}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://svenskidrott-my.sharepoint.com/personal/william_lind_rfsisu_se/Documents/Dokument/GitHub/Hemsideprojekt/Hemsideprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="11_F25DC773A252ABDACC1048F9A9DA43CE5ADE58FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B84B171B-1C33-4786-BAF2-70D76D17235F}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="11_F25DC773A252ABDACC1048F9A9DA43CE5ADE58FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB3F650B-CCC5-4E2F-959A-7B8CC2C483CE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Normaldistribution" sheetId="1" r:id="rId1"/>
-    <sheet name="Andel" sheetId="2" r:id="rId2"/>
+    <sheet name="Medel, median och andelar" sheetId="2" r:id="rId2"/>
+    <sheet name="Övrigt" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Kategori</t>
   </si>
@@ -108,13 +109,25 @@
   </si>
   <si>
     <t>Antal barn</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Percentiler</t>
+  </si>
+  <si>
+    <t>Ålderskategorier</t>
+  </si>
+  <si>
+    <t>Partisympatier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +137,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -151,12 +172,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,16 +464,16 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A2:A5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="117.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="6" max="6" width="117.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,13 +493,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="D2">
+        <v>180</v>
+      </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
@@ -483,13 +510,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="D3">
+        <v>166</v>
+      </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
@@ -497,23 +527,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -521,12 +557,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -538,70 +574,125 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D801E6-0F05-4FE2-823C-65EA8EB5F865}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD3F1BA-1A82-4046-BFB9-EB4FA5EDEA9E}">
+  <dimension ref="A2:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://svenskidrott-my.sharepoint.com/personal/william_lind_rfsisu_se/Documents/Dokument/GitHub/Hemsideprojekt/Hemsideprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="11_F25DC773A252ABDACC1048F9A9DA43CE5ADE58FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB3F650B-CCC5-4E2F-959A-7B8CC2C483CE}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="11_F25DC773A252ABDACC1048F9A9DA43CE5ADE58FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{233ADE83-16E4-4733-AD05-58DADD2291A6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="0" windowWidth="11760" windowHeight="10130" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Normaldistribution" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>Kategori</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Utbildningsnivå</t>
   </si>
   <si>
-    <t>Lön</t>
-  </si>
-  <si>
     <t>Timmar träning/v</t>
   </si>
   <si>
@@ -99,35 +96,116 @@
     <t>Ägande av bostad</t>
   </si>
   <si>
-    <t>Förmögenhet</t>
-  </si>
-  <si>
-    <t>Besparingar</t>
-  </si>
-  <si>
-    <t>Läsning (lästid/v, böcker/år)</t>
-  </si>
-  <si>
-    <t>Antal barn</t>
-  </si>
-  <si>
     <t>Median</t>
   </si>
   <si>
-    <t>Percentiler</t>
-  </si>
-  <si>
-    <t>Ålderskategorier</t>
-  </si>
-  <si>
     <t>Partisympatier</t>
+  </si>
+  <si>
+    <t>Kvinnor 18-24: 28000
+Kvinnor 25-34: 34800
+Kvinnor 35-44: 39100
+Kvinnor 45-54: 41400
+Kvinnor 55-64: 40000
+Män 18-24: 29400
+Män 25-34: 37200
+Män 35-44: 43500
+Män 45-54: 48000
+Män 55-64: 46000</t>
+  </si>
+  <si>
+    <t>SCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://rikatillsammans.se/forum/t/374-hur-rik-ar-svensken-2024/89088/2
+Figuren för Lysa långt ned i dokumentet
+</t>
+  </si>
+  <si>
+    <t>Månadssparande</t>
+  </si>
+  <si>
+    <t>https://blogg.avanza.se/hur-mycket-pengar-sparar-andra-i-din-alder-2024/</t>
+  </si>
+  <si>
+    <t>Lön (genomsnitt)</t>
+  </si>
+  <si>
+    <t>Besparingar 
+i bankkonto + fonder/aktier (median)</t>
+  </si>
+  <si>
+    <t>Läsning (timmar/v)</t>
+  </si>
+  <si>
+    <t>Totalt: 35600</t>
+  </si>
+  <si>
+    <t>18-64: 64100
+18-24: 23750
+25-29: 36050
+30-34: 53400
+35-39: 72240
+40-44: 81620
+45-49: 78800
+50-54: 70220
+55-59: 75030
+60-64: 85810</t>
+  </si>
+  <si>
+    <t>18-64: 1535
+18-24: 1040
+25-29: 1450
+30-34: 1660
+35-39: 1735
+40-44: 1750
+45-49: 1655
+50-54: 1360
+55-59: 1500
+60-64: 1660</t>
+  </si>
+  <si>
+    <t>Nöjdhet med livet</t>
+  </si>
+  <si>
+    <t>Samtliga: 234
+16-25: 234
+26-35: 198
+36-45: 186
+46-55: 198
+56-65: 216</t>
+  </si>
+  <si>
+    <t>Antal barn
+Om barn: jämfört med medel
+Om ej barn: hur stor andel har ej barn, och vad är genomsnittsålder för första barnet?</t>
+  </si>
+  <si>
+    <t>2 barn</t>
+  </si>
+  <si>
+    <t>Andelar</t>
+  </si>
+  <si>
+    <t>Första barnet
+Kvinnor: 30,4
+Män: 32,4</t>
+  </si>
+  <si>
+    <t>SCB
+https://www.svt.se/nyheter/lokalt/sormland/forskaren-darfor-valjer-manniskor-att-inte-skaffa-barn</t>
+  </si>
+  <si>
+    <t>Inga barn
+Kvinnor: 14%
+Män: 20%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +229,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -169,20 +255,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -574,17 +663,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D801E6-0F05-4FE2-823C-65EA8EB5F865}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" customWidth="1"/>
+    <col min="3" max="4" width="15.90625" customWidth="1"/>
+    <col min="5" max="5" width="64.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -595,21 +685,24 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -617,52 +710,100 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>23</v>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" display="https://rikatillsammans.se/forum/t/374-hur-rik-ar-svensken-2024/89088/" xr:uid="{45E16A99-658A-43DC-98E2-273A5CD9CBA7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -682,16 +823,16 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
